--- a/backend/app/data/sign.xlsx
+++ b/backend/app/data/sign.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baqil\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D75FAA-077F-4660-8F6F-63B9C2C75CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6E2748-4094-4DB0-AB79-765AEC1CDCFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{889E24F2-845D-4D0C-A6C3-6870DD9E2E91}"/>
+    <workbookView xWindow="6456" yWindow="4056" windowWidth="17280" windowHeight="8880" xr2:uid="{889E24F2-845D-4D0C-A6C3-6870DD9E2E91}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="1100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="1114">
   <si>
     <t>Dossier</t>
   </si>
@@ -156,9 +156,6 @@
     <t>1-005_08</t>
   </si>
   <si>
-    <t>1-005_09</t>
-  </si>
-  <si>
     <t>1-005_010</t>
   </si>
   <si>
@@ -189,9 +186,6 @@
     <t>2-002_010</t>
   </si>
   <si>
-    <t>2-004_01</t>
-  </si>
-  <si>
     <t>2-004_02</t>
   </si>
   <si>
@@ -261,9 +255,6 @@
     <t>3-005_03</t>
   </si>
   <si>
-    <t>3-005_04</t>
-  </si>
-  <si>
     <t>3-005_05</t>
   </si>
   <si>
@@ -345,9 +336,6 @@
     <t>5-001_03</t>
   </si>
   <si>
-    <t>5-001_04</t>
-  </si>
-  <si>
     <t>5-001_05</t>
   </si>
   <si>
@@ -372,18 +360,12 @@
     <t>5-003_03</t>
   </si>
   <si>
-    <t>5-003_04</t>
-  </si>
-  <si>
     <t>5-003_05</t>
   </si>
   <si>
     <t>5-003_06</t>
   </si>
   <si>
-    <t>5-003_07</t>
-  </si>
-  <si>
     <t>5-003_08</t>
   </si>
   <si>
@@ -411,9 +393,6 @@
     <t>5-005_07</t>
   </si>
   <si>
-    <t>5-005_08</t>
-  </si>
-  <si>
     <t>5-005_010</t>
   </si>
   <si>
@@ -495,9 +474,6 @@
     <t>7-001_08</t>
   </si>
   <si>
-    <t>7-001_010</t>
-  </si>
-  <si>
     <t>7-003_01</t>
   </si>
   <si>
@@ -600,9 +576,6 @@
     <t>8-004_07</t>
   </si>
   <si>
-    <t>8-004_08</t>
-  </si>
-  <si>
     <t>8-004_010</t>
   </si>
   <si>
@@ -702,21 +675,6 @@
     <t>10-002_05</t>
   </si>
   <si>
-    <t>10-002_06</t>
-  </si>
-  <si>
-    <t>10-002_07</t>
-  </si>
-  <si>
-    <t>10-002_08</t>
-  </si>
-  <si>
-    <t>10-002_09</t>
-  </si>
-  <si>
-    <t>10-002_010</t>
-  </si>
-  <si>
     <t>10-004_01</t>
   </si>
   <si>
@@ -810,9 +768,6 @@
     <t>11-005_06</t>
   </si>
   <si>
-    <t>11-005_07</t>
-  </si>
-  <si>
     <t>11-005_08</t>
   </si>
   <si>
@@ -852,12 +807,6 @@
     <t>12-002_010</t>
   </si>
   <si>
-    <t>12-004_01</t>
-  </si>
-  <si>
-    <t>12-002_10</t>
-  </si>
-  <si>
     <t>13-001_01</t>
   </si>
   <si>
@@ -1467,9 +1416,6 @@
     <t>27-005_010</t>
   </si>
   <si>
-    <t>23-002_03</t>
-  </si>
-  <si>
     <t>28-004_02</t>
   </si>
   <si>
@@ -1620,30 +1566,9 @@
     <t>33-003_01</t>
   </si>
   <si>
-    <t>33-001_010</t>
-  </si>
-  <si>
-    <t>33-001_04</t>
-  </si>
-  <si>
-    <t>33-001_06</t>
-  </si>
-  <si>
-    <t>33-001_07</t>
-  </si>
-  <si>
-    <t>33-001_08</t>
-  </si>
-  <si>
-    <t>33-001_09</t>
-  </si>
-  <si>
     <t>33-005_010</t>
   </si>
   <si>
-    <t>33-001_02</t>
-  </si>
-  <si>
     <t>34-002_01</t>
   </si>
   <si>
@@ -2406,9 +2331,6 @@
     <t>50-004_09</t>
   </si>
   <si>
-    <t>50-004_10</t>
-  </si>
-  <si>
     <t>51-001_01</t>
   </si>
   <si>
@@ -2436,9 +2358,6 @@
     <t>51-001_09</t>
   </si>
   <si>
-    <t>51-001_10</t>
-  </si>
-  <si>
     <t>51-005_01</t>
   </si>
   <si>
@@ -2451,9 +2370,6 @@
     <t>51-005_09</t>
   </si>
   <si>
-    <t>51-005_10</t>
-  </si>
-  <si>
     <t>52-002_01</t>
   </si>
   <si>
@@ -2481,9 +2397,6 @@
     <t>52-002_09</t>
   </si>
   <si>
-    <t>52-002_10</t>
-  </si>
-  <si>
     <t>52-004_01</t>
   </si>
   <si>
@@ -2511,9 +2424,6 @@
     <t>52-004_09</t>
   </si>
   <si>
-    <t>52-004_10</t>
-  </si>
-  <si>
     <t>53-001_01</t>
   </si>
   <si>
@@ -2541,9 +2451,6 @@
     <t>53-001_09</t>
   </si>
   <si>
-    <t>53-001_10</t>
-  </si>
-  <si>
     <t>53-003_02</t>
   </si>
   <si>
@@ -2568,9 +2475,6 @@
     <t>53-003_09</t>
   </si>
   <si>
-    <t>53-003_10</t>
-  </si>
-  <si>
     <t>53-005_01</t>
   </si>
   <si>
@@ -2610,18 +2514,12 @@
     <t>54-004_09</t>
   </si>
   <si>
-    <t>54-004_10</t>
-  </si>
-  <si>
     <t>55-001_01</t>
   </si>
   <si>
     <t>55-001_05</t>
   </si>
   <si>
-    <t>55-001_10</t>
-  </si>
-  <si>
     <t>55-003_01</t>
   </si>
   <si>
@@ -2649,9 +2547,6 @@
     <t>55-003_09</t>
   </si>
   <si>
-    <t>55-003_10</t>
-  </si>
-  <si>
     <t>55-005_01</t>
   </si>
   <si>
@@ -2679,9 +2574,6 @@
     <t>55-005_09</t>
   </si>
   <si>
-    <t>55-005_10</t>
-  </si>
-  <si>
     <t>56-002_01</t>
   </si>
   <si>
@@ -2709,9 +2601,6 @@
     <t>56-002_09</t>
   </si>
   <si>
-    <t>56-002_10</t>
-  </si>
-  <si>
     <t>56-004_01</t>
   </si>
   <si>
@@ -2736,9 +2625,6 @@
     <t>56-004_09</t>
   </si>
   <si>
-    <t>56-004_10</t>
-  </si>
-  <si>
     <t>57-001_02</t>
   </si>
   <si>
@@ -3337,6 +3223,162 @@
   </si>
   <si>
     <t>72-002_010</t>
+  </si>
+  <si>
+    <t>5-005_09</t>
+  </si>
+  <si>
+    <t>8-004_09</t>
+  </si>
+  <si>
+    <t>9-001_09</t>
+  </si>
+  <si>
+    <t>12-004_05</t>
+  </si>
+  <si>
+    <t>12-004_010</t>
+  </si>
+  <si>
+    <t>28-002_03</t>
+  </si>
+  <si>
+    <t>28-002_02</t>
+  </si>
+  <si>
+    <t>28-002_09</t>
+  </si>
+  <si>
+    <t>29-005_02</t>
+  </si>
+  <si>
+    <t>29-005_03</t>
+  </si>
+  <si>
+    <t>31-003_04</t>
+  </si>
+  <si>
+    <t>31-003_05</t>
+  </si>
+  <si>
+    <t>31-003_07</t>
+  </si>
+  <si>
+    <t>31-003_08</t>
+  </si>
+  <si>
+    <t>33-003_010</t>
+  </si>
+  <si>
+    <t>33-003_03</t>
+  </si>
+  <si>
+    <t>33-003_04</t>
+  </si>
+  <si>
+    <t>33-003_05</t>
+  </si>
+  <si>
+    <t>33-003_06</t>
+  </si>
+  <si>
+    <t>33-003_07</t>
+  </si>
+  <si>
+    <t>33-003_08</t>
+  </si>
+  <si>
+    <t>33-003_09</t>
+  </si>
+  <si>
+    <t>33-005_02</t>
+  </si>
+  <si>
+    <t>33-005_03</t>
+  </si>
+  <si>
+    <t>33-005_04</t>
+  </si>
+  <si>
+    <t>33-005_05</t>
+  </si>
+  <si>
+    <t>33-005_06</t>
+  </si>
+  <si>
+    <t>33-005_07</t>
+  </si>
+  <si>
+    <t>33-005_08</t>
+  </si>
+  <si>
+    <t>35-003_01</t>
+  </si>
+  <si>
+    <t>35-003_02</t>
+  </si>
+  <si>
+    <t>35-003_03</t>
+  </si>
+  <si>
+    <t>35-003_04</t>
+  </si>
+  <si>
+    <t>35-003_05</t>
+  </si>
+  <si>
+    <t>35-003_06</t>
+  </si>
+  <si>
+    <t>35-003_07</t>
+  </si>
+  <si>
+    <t>35-003_08</t>
+  </si>
+  <si>
+    <t>35-003_09</t>
+  </si>
+  <si>
+    <t>35-003_010</t>
+  </si>
+  <si>
+    <t>50-004_010</t>
+  </si>
+  <si>
+    <t>51-001_010</t>
+  </si>
+  <si>
+    <t>51-005_010</t>
+  </si>
+  <si>
+    <t>52-002_010</t>
+  </si>
+  <si>
+    <t>52-004_010</t>
+  </si>
+  <si>
+    <t>53-001_010</t>
+  </si>
+  <si>
+    <t>53-003_010</t>
+  </si>
+  <si>
+    <t>54-004_010</t>
+  </si>
+  <si>
+    <t>55-001_010</t>
+  </si>
+  <si>
+    <t>55-003_010</t>
+  </si>
+  <si>
+    <t>55-005_010</t>
+  </si>
+  <si>
+    <t>56-002_010</t>
+  </si>
+  <si>
+    <t>56-004_010</t>
   </si>
 </sst>
 </file>
@@ -3800,8 +3842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10275E4A-B4BB-450E-89F7-B2B5E5F7C682}">
   <dimension ref="A1:K687"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A677" workbookViewId="0">
-      <selection activeCell="H687" sqref="H687"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="F175" sqref="F175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3942,40 +3984,38 @@
       <c r="J4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="I5" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="K5" s="6"/>
     </row>
@@ -3984,69 +4024,67 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="J6" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>59</v>
-      </c>
+      <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="G7" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="I7" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="J7" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="K7" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4054,10 +4092,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -4073,29 +4111,27 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="F9" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="G9" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="H9" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>79</v>
-      </c>
+      <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
     </row>
@@ -4104,34 +4140,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="H10" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="I10" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="J10" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="K10" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4139,31 +4175,31 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="F11" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="G11" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="H11" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="I11" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="J11" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="K11" s="6"/>
     </row>
@@ -4172,32 +4208,30 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="F12" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="G12" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="I12" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>107</v>
-      </c>
+      <c r="J12" s="5"/>
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4205,32 +4239,28 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="G13" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="H13" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>116</v>
-      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
       <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4238,31 +4268,31 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="I14" s="5" t="s">
+        <v>1062</v>
+      </c>
+      <c r="J14" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>125</v>
       </c>
       <c r="K14" s="5"/>
     </row>
@@ -4271,31 +4301,31 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I15" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="J15" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>134</v>
       </c>
       <c r="K15" s="6"/>
     </row>
@@ -4304,31 +4334,31 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="I16" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="J16" s="5" t="s">
         <v>136</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>143</v>
       </c>
       <c r="K16" s="5"/>
     </row>
@@ -4337,32 +4367,30 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I17" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>152</v>
-      </c>
+      <c r="J17" s="6"/>
       <c r="K17" s="6"/>
     </row>
     <row r="18" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4370,31 +4398,31 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="J18" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>161</v>
       </c>
       <c r="K18" s="5"/>
     </row>
@@ -4403,31 +4431,31 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="J19" s="6" t="s">
         <v>162</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>170</v>
       </c>
       <c r="K19" s="6"/>
     </row>
@@ -4436,31 +4464,31 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="J20" s="5" t="s">
         <v>171</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>179</v>
       </c>
       <c r="K20" s="5"/>
     </row>
@@ -4469,31 +4497,31 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>187</v>
+        <v>1063</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="K21" s="6"/>
     </row>
@@ -4502,61 +4530,63 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="K22" s="5"/>
+        <v>1064</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -4566,34 +4596,34 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="K24" s="5" t="s">
         <v>206</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4601,69 +4631,59 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>225</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
     </row>
     <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4671,34 +4691,34 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4706,19 +4726,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -4731,69 +4751,67 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>260</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="K29" s="6"/>
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4801,17 +4819,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>271</v>
+        <v>1065</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>272</v>
-      </c>
+        <v>1066</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -4824,34 +4838,34 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4859,16 +4873,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
@@ -4882,28 +4896,28 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
@@ -4913,31 +4927,31 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="K35" s="6"/>
     </row>
@@ -4946,10 +4960,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -4965,28 +4979,28 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
@@ -4996,7 +5010,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -5013,31 +5027,31 @@
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="K39" s="6"/>
     </row>
@@ -5046,22 +5060,22 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
@@ -5073,34 +5087,34 @@
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5108,19 +5122,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
@@ -5163,22 +5177,22 @@
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
@@ -5205,34 +5219,34 @@
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5240,34 +5254,34 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5290,31 +5304,31 @@
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="K50" s="5"/>
     </row>
@@ -5323,7 +5337,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -5340,25 +5354,25 @@
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
@@ -5369,19 +5383,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
@@ -5409,31 +5423,31 @@
         <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="K55" s="6"/>
     </row>
@@ -5442,25 +5456,25 @@
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
@@ -5471,31 +5485,31 @@
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
       <c r="J57" s="6" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="K57" s="6"/>
     </row>
@@ -5504,7 +5518,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
@@ -5551,22 +5565,22 @@
         <v>60</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
@@ -5578,28 +5592,28 @@
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
@@ -5624,34 +5638,34 @@
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="J64" s="5" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="K64" s="5" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5674,22 +5688,22 @@
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
@@ -5701,34 +5715,34 @@
         <v>66</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="J67" s="6" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="K67" s="6" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5736,31 +5750,31 @@
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="K68" s="5"/>
     </row>
@@ -5769,28 +5783,28 @@
         <v>68</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
@@ -5800,10 +5814,14 @@
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
+        <v>1067</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>1069</v>
+      </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
@@ -5817,19 +5835,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>477</v>
+        <v>459</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>478</v>
+        <v>460</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>479</v>
+        <v>461</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
@@ -5842,13 +5860,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>484</v>
+        <v>466</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
@@ -5863,28 +5881,28 @@
         <v>72</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>485</v>
+        <v>467</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>486</v>
+        <v>468</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>487</v>
+        <v>469</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>490</v>
+        <v>472</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>492</v>
+        <v>474</v>
       </c>
       <c r="J73" s="6"/>
       <c r="K73" s="6"/>
@@ -5894,10 +5912,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>434</v>
+        <v>1070</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>435</v>
+        <v>1071</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
@@ -5913,13 +5931,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>495</v>
+        <v>477</v>
       </c>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
@@ -5949,34 +5967,34 @@
         <v>76</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>496</v>
+        <v>478</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>497</v>
+        <v>479</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>501</v>
+        <v>483</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>502</v>
+        <v>484</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>503</v>
+        <v>485</v>
       </c>
       <c r="J77" s="6" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
       <c r="K77" s="6" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5984,19 +6002,19 @@
         <v>77</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>499</v>
+        <v>1072</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>500</v>
+        <v>1073</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>502</v>
+        <v>1074</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>503</v>
+        <v>1075</v>
       </c>
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
@@ -6009,34 +6027,34 @@
         <v>78</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>507</v>
+        <v>489</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>508</v>
+        <v>490</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>510</v>
+        <v>492</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>511</v>
+        <v>493</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>512</v>
+        <v>494</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>513</v>
+        <v>495</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>514</v>
+        <v>496</v>
       </c>
       <c r="J79" s="6" t="s">
-        <v>515</v>
+        <v>497</v>
       </c>
       <c r="K79" s="6" t="s">
-        <v>516</v>
+        <v>498</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6059,22 +6077,22 @@
         <v>80</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>517</v>
+        <v>499</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>518</v>
+        <v>500</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>519</v>
+        <v>501</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>520</v>
+        <v>502</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>522</v>
+        <v>504</v>
       </c>
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
@@ -6086,13 +6104,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>524</v>
+        <v>506</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>525</v>
+        <v>507</v>
       </c>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
@@ -6107,31 +6125,31 @@
         <v>82</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>526</v>
+        <v>508</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>527</v>
+        <v>1076</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>524</v>
+        <v>1077</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>528</v>
+        <v>1078</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>525</v>
+        <v>1079</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>529</v>
+        <v>1080</v>
       </c>
       <c r="H83" s="6" t="s">
-        <v>530</v>
+        <v>1081</v>
       </c>
       <c r="I83" s="6" t="s">
-        <v>531</v>
+        <v>1082</v>
       </c>
       <c r="J83" s="6" t="s">
-        <v>532</v>
+        <v>1083</v>
       </c>
       <c r="K83" s="6"/>
     </row>
@@ -6140,28 +6158,28 @@
         <v>83</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>533</v>
+        <v>509</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>534</v>
+        <v>1084</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>524</v>
+        <v>1085</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>528</v>
+        <v>1086</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>525</v>
+        <v>1087</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>529</v>
+        <v>1088</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>530</v>
+        <v>1089</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>531</v>
+        <v>1090</v>
       </c>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
@@ -6171,31 +6189,31 @@
         <v>84</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>535</v>
+        <v>510</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>536</v>
+        <v>511</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>537</v>
+        <v>512</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>538</v>
+        <v>513</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>539</v>
+        <v>514</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>540</v>
+        <v>515</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>541</v>
+        <v>516</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>542</v>
+        <v>517</v>
       </c>
       <c r="J85" s="6" t="s">
-        <v>543</v>
+        <v>518</v>
       </c>
       <c r="K85" s="6"/>
     </row>
@@ -6204,25 +6222,25 @@
         <v>85</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>544</v>
+        <v>519</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>545</v>
+        <v>520</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>546</v>
+        <v>521</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>547</v>
+        <v>522</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>548</v>
+        <v>523</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>549</v>
+        <v>524</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
@@ -6233,34 +6251,34 @@
         <v>86</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>551</v>
+        <v>526</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>552</v>
+        <v>527</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>553</v>
+        <v>528</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>554</v>
+        <v>529</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>555</v>
+        <v>530</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>556</v>
+        <v>531</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>557</v>
+        <v>532</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>558</v>
+        <v>533</v>
       </c>
       <c r="J87" s="6" t="s">
-        <v>559</v>
+        <v>534</v>
       </c>
       <c r="K87" s="6" t="s">
-        <v>560</v>
+        <v>535</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6268,34 +6286,34 @@
         <v>87</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>551</v>
+        <v>1091</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>552</v>
+        <v>1092</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>553</v>
+        <v>1093</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>554</v>
+        <v>1094</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>555</v>
+        <v>1095</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>556</v>
+        <v>1096</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>557</v>
+        <v>1097</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>558</v>
+        <v>1098</v>
       </c>
       <c r="J88" s="5" t="s">
-        <v>559</v>
+        <v>1099</v>
       </c>
       <c r="K88" s="5" t="s">
-        <v>560</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6303,25 +6321,25 @@
         <v>88</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>564</v>
+        <v>539</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>565</v>
+        <v>540</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>566</v>
+        <v>541</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>567</v>
+        <v>542</v>
       </c>
       <c r="I89" s="6"/>
       <c r="J89" s="6"/>
@@ -6332,34 +6350,34 @@
         <v>89</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>568</v>
+        <v>543</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>569</v>
+        <v>544</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>570</v>
+        <v>545</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>571</v>
+        <v>546</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>572</v>
+        <v>547</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>573</v>
+        <v>548</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>574</v>
+        <v>549</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="J90" s="5" t="s">
-        <v>576</v>
+        <v>551</v>
       </c>
       <c r="K90" s="5" t="s">
-        <v>577</v>
+        <v>552</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6367,34 +6385,34 @@
         <v>90</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>578</v>
+        <v>553</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>579</v>
+        <v>554</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>580</v>
+        <v>555</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>581</v>
+        <v>556</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>582</v>
+        <v>557</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>583</v>
+        <v>558</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>584</v>
+        <v>559</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>585</v>
+        <v>560</v>
       </c>
       <c r="J91" s="6" t="s">
-        <v>586</v>
+        <v>561</v>
       </c>
       <c r="K91" s="6" t="s">
-        <v>587</v>
+        <v>562</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6402,22 +6420,22 @@
         <v>91</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>588</v>
+        <v>563</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>589</v>
+        <v>564</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>590</v>
+        <v>565</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>591</v>
+        <v>566</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>592</v>
+        <v>567</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>593</v>
+        <v>568</v>
       </c>
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
@@ -6429,16 +6447,16 @@
         <v>92</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>594</v>
+        <v>569</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>595</v>
+        <v>570</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>596</v>
+        <v>571</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>597</v>
+        <v>572</v>
       </c>
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
@@ -6452,31 +6470,31 @@
         <v>93</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>599</v>
+        <v>574</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>600</v>
+        <v>575</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>601</v>
+        <v>576</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>602</v>
+        <v>577</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>603</v>
+        <v>578</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>604</v>
+        <v>579</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>605</v>
+        <v>580</v>
       </c>
       <c r="J94" s="5" t="s">
-        <v>606</v>
+        <v>581</v>
       </c>
       <c r="K94" s="5"/>
     </row>
@@ -6485,34 +6503,34 @@
         <v>94</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>607</v>
+        <v>582</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>608</v>
+        <v>583</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>609</v>
+        <v>584</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>610</v>
+        <v>585</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>611</v>
+        <v>586</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>612</v>
+        <v>587</v>
       </c>
       <c r="H95" s="6" t="s">
-        <v>613</v>
+        <v>588</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>614</v>
+        <v>589</v>
       </c>
       <c r="J95" s="6" t="s">
-        <v>615</v>
+        <v>590</v>
       </c>
       <c r="K95" s="6" t="s">
-        <v>616</v>
+        <v>591</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6520,28 +6538,28 @@
         <v>95</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>617</v>
+        <v>592</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>618</v>
+        <v>593</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>619</v>
+        <v>594</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>620</v>
+        <v>595</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>621</v>
+        <v>596</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>622</v>
+        <v>597</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>623</v>
+        <v>598</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>624</v>
+        <v>599</v>
       </c>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
@@ -6551,25 +6569,25 @@
         <v>96</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>625</v>
+        <v>600</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>626</v>
+        <v>601</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>627</v>
+        <v>602</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>628</v>
+        <v>603</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>629</v>
+        <v>604</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>630</v>
+        <v>605</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>631</v>
+        <v>606</v>
       </c>
       <c r="I97" s="6"/>
       <c r="J97" s="6"/>
@@ -6580,25 +6598,25 @@
         <v>97</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>632</v>
+        <v>607</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>633</v>
+        <v>608</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>634</v>
+        <v>609</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>635</v>
+        <v>610</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>636</v>
+        <v>611</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>637</v>
+        <v>612</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>638</v>
+        <v>613</v>
       </c>
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
@@ -6609,7 +6627,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>639</v>
+        <v>614</v>
       </c>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
@@ -6626,34 +6644,34 @@
         <v>99</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>640</v>
+        <v>615</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>641</v>
+        <v>616</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>642</v>
+        <v>617</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>643</v>
+        <v>618</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>644</v>
+        <v>619</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>645</v>
+        <v>620</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>646</v>
+        <v>621</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>647</v>
+        <v>622</v>
       </c>
       <c r="J100" s="5" t="s">
-        <v>648</v>
+        <v>623</v>
       </c>
       <c r="K100" s="5" t="s">
-        <v>649</v>
+        <v>624</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6661,16 +6679,16 @@
         <v>100</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>651</v>
+        <v>626</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>652</v>
+        <v>627</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>653</v>
+        <v>628</v>
       </c>
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
@@ -6684,25 +6702,25 @@
         <v>101</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>654</v>
+        <v>629</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>655</v>
+        <v>630</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>656</v>
+        <v>631</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>657</v>
+        <v>632</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>658</v>
+        <v>633</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>659</v>
+        <v>634</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>660</v>
+        <v>635</v>
       </c>
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
@@ -6713,28 +6731,28 @@
         <v>102</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>660</v>
+        <v>642</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>661</v>
+        <v>636</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>662</v>
+        <v>637</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>664</v>
+        <v>639</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>665</v>
+        <v>640</v>
       </c>
       <c r="H103" s="6" t="s">
-        <v>666</v>
+        <v>641</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>667</v>
+        <v>642</v>
       </c>
       <c r="J103" s="6"/>
       <c r="K103" s="6"/>
@@ -6759,34 +6777,34 @@
         <v>104</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>668</v>
+        <v>643</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>669</v>
+        <v>644</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>670</v>
+        <v>645</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>671</v>
+        <v>646</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>672</v>
+        <v>647</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>673</v>
+        <v>648</v>
       </c>
       <c r="H105" s="6" t="s">
-        <v>674</v>
+        <v>649</v>
       </c>
       <c r="I105" s="6" t="s">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="J105" s="6" t="s">
-        <v>676</v>
+        <v>651</v>
       </c>
       <c r="K105" s="6" t="s">
-        <v>677</v>
+        <v>652</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6809,16 +6827,16 @@
         <v>106</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>678</v>
+        <v>653</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>679</v>
+        <v>654</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>680</v>
+        <v>655</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>681</v>
+        <v>656</v>
       </c>
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
@@ -6832,10 +6850,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>682</v>
+        <v>657</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>683</v>
+        <v>658</v>
       </c>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
@@ -6881,10 +6899,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>684</v>
+        <v>659</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>685</v>
+        <v>660</v>
       </c>
       <c r="D111" s="6"/>
       <c r="E111" s="6"/>
@@ -6900,19 +6918,19 @@
         <v>111</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>686</v>
+        <v>661</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>687</v>
+        <v>662</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>688</v>
+        <v>663</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>689</v>
+        <v>664</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>690</v>
+        <v>665</v>
       </c>
       <c r="G112" s="5"/>
       <c r="H112" s="5"/>
@@ -6925,34 +6943,34 @@
         <v>112</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>691</v>
+        <v>666</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>692</v>
+        <v>667</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>693</v>
+        <v>668</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>694</v>
+        <v>669</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>695</v>
+        <v>670</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>696</v>
+        <v>671</v>
       </c>
       <c r="H113" s="6" t="s">
-        <v>697</v>
+        <v>672</v>
       </c>
       <c r="I113" s="6" t="s">
-        <v>698</v>
+        <v>673</v>
       </c>
       <c r="J113" s="6" t="s">
-        <v>699</v>
+        <v>674</v>
       </c>
       <c r="K113" s="6" t="s">
-        <v>700</v>
+        <v>675</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6960,22 +6978,22 @@
         <v>113</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>701</v>
+        <v>676</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>702</v>
+        <v>677</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>703</v>
+        <v>678</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>704</v>
+        <v>679</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>705</v>
+        <v>680</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>706</v>
+        <v>681</v>
       </c>
       <c r="H114" s="5"/>
       <c r="I114" s="5"/>
@@ -6987,34 +7005,34 @@
         <v>114</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>707</v>
+        <v>682</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>708</v>
+        <v>683</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>709</v>
+        <v>684</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>710</v>
+        <v>685</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>711</v>
+        <v>686</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>712</v>
+        <v>687</v>
       </c>
       <c r="H115" s="6" t="s">
-        <v>713</v>
+        <v>688</v>
       </c>
       <c r="I115" s="6" t="s">
-        <v>714</v>
+        <v>689</v>
       </c>
       <c r="J115" s="6" t="s">
-        <v>715</v>
+        <v>690</v>
       </c>
       <c r="K115" s="6" t="s">
-        <v>716</v>
+        <v>691</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7022,34 +7040,34 @@
         <v>115</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>717</v>
+        <v>692</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>718</v>
+        <v>693</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>719</v>
+        <v>694</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>720</v>
+        <v>695</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>721</v>
+        <v>696</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>722</v>
+        <v>697</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>723</v>
+        <v>698</v>
       </c>
       <c r="I116" s="5" t="s">
-        <v>724</v>
+        <v>699</v>
       </c>
       <c r="J116" s="5" t="s">
-        <v>725</v>
+        <v>700</v>
       </c>
       <c r="K116" s="5" t="s">
-        <v>726</v>
+        <v>701</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7057,31 +7075,31 @@
         <v>116</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>727</v>
+        <v>702</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>728</v>
+        <v>703</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>729</v>
+        <v>704</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>730</v>
+        <v>705</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>731</v>
+        <v>706</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>732</v>
+        <v>707</v>
       </c>
       <c r="H117" s="6" t="s">
-        <v>733</v>
+        <v>708</v>
       </c>
       <c r="I117" s="6" t="s">
-        <v>734</v>
+        <v>709</v>
       </c>
       <c r="J117" s="6" t="s">
-        <v>735</v>
+        <v>710</v>
       </c>
       <c r="K117" s="6"/>
     </row>
@@ -7090,31 +7108,31 @@
         <v>117</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>736</v>
+        <v>711</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>737</v>
+        <v>712</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>738</v>
+        <v>713</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>739</v>
+        <v>714</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>740</v>
+        <v>715</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>741</v>
+        <v>716</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>742</v>
+        <v>717</v>
       </c>
       <c r="I118" s="5" t="s">
-        <v>743</v>
+        <v>718</v>
       </c>
       <c r="J118" s="5" t="s">
-        <v>744</v>
+        <v>719</v>
       </c>
       <c r="K118" s="5"/>
     </row>
@@ -7123,31 +7141,31 @@
         <v>118</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>745</v>
+        <v>720</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>746</v>
+        <v>721</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>747</v>
+        <v>722</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>748</v>
+        <v>723</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>749</v>
+        <v>724</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>750</v>
+        <v>725</v>
       </c>
       <c r="H119" s="6" t="s">
-        <v>751</v>
+        <v>726</v>
       </c>
       <c r="I119" s="6" t="s">
-        <v>752</v>
+        <v>727</v>
       </c>
       <c r="J119" s="6" t="s">
-        <v>753</v>
+        <v>728</v>
       </c>
       <c r="K119" s="6"/>
     </row>
@@ -7156,31 +7174,31 @@
         <v>119</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>754</v>
+        <v>729</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>755</v>
+        <v>730</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>756</v>
+        <v>731</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>757</v>
+        <v>732</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>758</v>
+        <v>733</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>759</v>
+        <v>734</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>760</v>
+        <v>735</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>761</v>
+        <v>736</v>
       </c>
       <c r="J120" s="5" t="s">
-        <v>762</v>
+        <v>737</v>
       </c>
       <c r="K120" s="5"/>
     </row>
@@ -7204,34 +7222,34 @@
         <v>121</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>763</v>
+        <v>738</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>764</v>
+        <v>739</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>765</v>
+        <v>740</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>766</v>
+        <v>741</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>767</v>
+        <v>742</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>768</v>
+        <v>743</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>769</v>
+        <v>744</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>770</v>
+        <v>745</v>
       </c>
       <c r="J122" s="5" t="s">
-        <v>771</v>
+        <v>746</v>
       </c>
       <c r="K122" s="5" t="s">
-        <v>772</v>
+        <v>747</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7239,7 +7257,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>773</v>
+        <v>748</v>
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
@@ -7256,7 +7274,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>774</v>
+        <v>749</v>
       </c>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
@@ -7273,25 +7291,25 @@
         <v>124</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>776</v>
+        <v>751</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>777</v>
+        <v>752</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>778</v>
+        <v>753</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>779</v>
+        <v>754</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>780</v>
+        <v>755</v>
       </c>
       <c r="H125" s="6" t="s">
-        <v>781</v>
+        <v>756</v>
       </c>
       <c r="I125" s="6"/>
       <c r="J125" s="6"/>
@@ -7302,28 +7320,28 @@
         <v>125</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>782</v>
+        <v>757</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>783</v>
+        <v>758</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>784</v>
+        <v>759</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>785</v>
+        <v>760</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>786</v>
+        <v>761</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>787</v>
+        <v>762</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>788</v>
+        <v>763</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>789</v>
+        <v>1101</v>
       </c>
       <c r="J126" s="5"/>
       <c r="K126" s="5"/>
@@ -7333,34 +7351,34 @@
         <v>126</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>790</v>
+        <v>764</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>791</v>
+        <v>765</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>792</v>
+        <v>766</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>793</v>
+        <v>767</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>794</v>
+        <v>768</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>795</v>
+        <v>769</v>
       </c>
       <c r="H127" s="6" t="s">
-        <v>796</v>
+        <v>770</v>
       </c>
       <c r="I127" s="6" t="s">
-        <v>797</v>
+        <v>771</v>
       </c>
       <c r="J127" s="6" t="s">
-        <v>798</v>
+        <v>772</v>
       </c>
       <c r="K127" s="6" t="s">
-        <v>799</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="128" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7383,19 +7401,19 @@
         <v>128</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>800</v>
+        <v>773</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>801</v>
+        <v>774</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>802</v>
+        <v>775</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>803</v>
+        <v>776</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>804</v>
+        <v>1103</v>
       </c>
       <c r="G129" s="6"/>
       <c r="H129" s="6"/>
@@ -7408,34 +7426,34 @@
         <v>129</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>805</v>
+        <v>777</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>806</v>
+        <v>778</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>807</v>
+        <v>779</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>808</v>
+        <v>780</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>809</v>
+        <v>781</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>810</v>
+        <v>782</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>811</v>
+        <v>783</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>812</v>
+        <v>784</v>
       </c>
       <c r="J130" s="5" t="s">
-        <v>813</v>
+        <v>785</v>
       </c>
       <c r="K130" s="5" t="s">
-        <v>814</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="131" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7443,34 +7461,34 @@
         <v>130</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>815</v>
+        <v>786</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>816</v>
+        <v>787</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>817</v>
+        <v>788</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>818</v>
+        <v>789</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>819</v>
+        <v>790</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>820</v>
+        <v>791</v>
       </c>
       <c r="H131" s="6" t="s">
-        <v>821</v>
+        <v>792</v>
       </c>
       <c r="I131" s="6" t="s">
-        <v>822</v>
+        <v>793</v>
       </c>
       <c r="J131" s="6" t="s">
-        <v>823</v>
+        <v>794</v>
       </c>
       <c r="K131" s="6" t="s">
-        <v>824</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="132" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7478,34 +7496,34 @@
         <v>131</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>825</v>
+        <v>795</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>826</v>
+        <v>796</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>827</v>
+        <v>797</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>828</v>
+        <v>798</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>829</v>
+        <v>799</v>
       </c>
       <c r="G132" s="5" t="s">
-        <v>830</v>
+        <v>800</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>831</v>
+        <v>801</v>
       </c>
       <c r="I132" s="5" t="s">
-        <v>832</v>
+        <v>802</v>
       </c>
       <c r="J132" s="5" t="s">
-        <v>833</v>
+        <v>803</v>
       </c>
       <c r="K132" s="5" t="s">
-        <v>834</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="133" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7513,31 +7531,31 @@
         <v>132</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>835</v>
+        <v>804</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>836</v>
+        <v>805</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>837</v>
+        <v>806</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>838</v>
+        <v>807</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>839</v>
+        <v>808</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>840</v>
+        <v>809</v>
       </c>
       <c r="H133" s="6" t="s">
-        <v>841</v>
+        <v>810</v>
       </c>
       <c r="I133" s="6" t="s">
-        <v>842</v>
+        <v>811</v>
       </c>
       <c r="J133" s="6" t="s">
-        <v>843</v>
+        <v>1107</v>
       </c>
       <c r="K133" s="6"/>
     </row>
@@ -7546,16 +7564,16 @@
         <v>133</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>844</v>
+        <v>812</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>845</v>
+        <v>813</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>846</v>
+        <v>814</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>847</v>
+        <v>815</v>
       </c>
       <c r="F134" s="5"/>
       <c r="G134" s="5"/>
@@ -7584,34 +7602,34 @@
         <v>135</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>848</v>
+        <v>816</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>849</v>
+        <v>817</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>850</v>
+        <v>818</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>851</v>
+        <v>819</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>852</v>
+        <v>820</v>
       </c>
       <c r="G136" s="5" t="s">
-        <v>853</v>
+        <v>821</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>854</v>
+        <v>822</v>
       </c>
       <c r="I136" s="5" t="s">
-        <v>855</v>
+        <v>823</v>
       </c>
       <c r="J136" s="5" t="s">
-        <v>856</v>
+        <v>824</v>
       </c>
       <c r="K136" s="5" t="s">
-        <v>857</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="137" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7619,13 +7637,13 @@
         <v>136</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>858</v>
+        <v>825</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>859</v>
+        <v>826</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>860</v>
+        <v>1109</v>
       </c>
       <c r="E137" s="6"/>
       <c r="F137" s="6"/>
@@ -7640,34 +7658,34 @@
         <v>137</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>861</v>
+        <v>827</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>862</v>
+        <v>828</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>863</v>
+        <v>829</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>864</v>
+        <v>830</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>865</v>
+        <v>831</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>866</v>
+        <v>832</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>867</v>
+        <v>833</v>
       </c>
       <c r="I138" s="5" t="s">
-        <v>868</v>
+        <v>834</v>
       </c>
       <c r="J138" s="5" t="s">
-        <v>869</v>
+        <v>835</v>
       </c>
       <c r="K138" s="5" t="s">
-        <v>870</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="139" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7675,34 +7693,34 @@
         <v>138</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>871</v>
+        <v>836</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>872</v>
+        <v>837</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>873</v>
+        <v>838</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>874</v>
+        <v>839</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>875</v>
+        <v>840</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>876</v>
+        <v>841</v>
       </c>
       <c r="H139" s="6" t="s">
-        <v>877</v>
+        <v>842</v>
       </c>
       <c r="I139" s="6" t="s">
-        <v>878</v>
+        <v>843</v>
       </c>
       <c r="J139" s="6" t="s">
-        <v>879</v>
+        <v>844</v>
       </c>
       <c r="K139" s="6" t="s">
-        <v>880</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="140" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7710,34 +7728,34 @@
         <v>139</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>881</v>
+        <v>845</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>882</v>
+        <v>846</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>883</v>
+        <v>847</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>884</v>
+        <v>848</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>885</v>
+        <v>849</v>
       </c>
       <c r="G140" s="5" t="s">
-        <v>886</v>
+        <v>850</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>887</v>
+        <v>851</v>
       </c>
       <c r="I140" s="5" t="s">
-        <v>888</v>
+        <v>852</v>
       </c>
       <c r="J140" s="5" t="s">
-        <v>889</v>
+        <v>853</v>
       </c>
       <c r="K140" s="5" t="s">
-        <v>890</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="141" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7745,31 +7763,31 @@
         <v>140</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>891</v>
+        <v>854</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>892</v>
+        <v>855</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>893</v>
+        <v>856</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>894</v>
+        <v>857</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>895</v>
+        <v>858</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>896</v>
+        <v>859</v>
       </c>
       <c r="H141" s="6" t="s">
-        <v>897</v>
+        <v>860</v>
       </c>
       <c r="I141" s="6" t="s">
-        <v>898</v>
+        <v>861</v>
       </c>
       <c r="J141" s="6" t="s">
-        <v>899</v>
+        <v>1113</v>
       </c>
       <c r="K141" s="6"/>
     </row>
@@ -7778,19 +7796,19 @@
         <v>141</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>900</v>
+        <v>862</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>901</v>
+        <v>863</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>902</v>
+        <v>864</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>903</v>
+        <v>865</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>904</v>
+        <v>866</v>
       </c>
       <c r="G142" s="5"/>
       <c r="H142" s="5"/>
@@ -7803,31 +7821,31 @@
         <v>142</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>905</v>
+        <v>867</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>906</v>
+        <v>868</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>907</v>
+        <v>869</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>908</v>
+        <v>870</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>909</v>
+        <v>871</v>
       </c>
       <c r="G143" s="6" t="s">
-        <v>910</v>
+        <v>872</v>
       </c>
       <c r="H143" s="6" t="s">
-        <v>911</v>
+        <v>873</v>
       </c>
       <c r="I143" s="6" t="s">
-        <v>912</v>
+        <v>874</v>
       </c>
       <c r="J143" s="6" t="s">
-        <v>913</v>
+        <v>875</v>
       </c>
       <c r="K143" s="6"/>
     </row>
@@ -7836,31 +7854,31 @@
         <v>143</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>914</v>
+        <v>876</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>917</v>
+        <v>879</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>918</v>
+        <v>880</v>
       </c>
       <c r="G144" s="5" t="s">
-        <v>919</v>
+        <v>881</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>920</v>
+        <v>882</v>
       </c>
       <c r="I144" s="5" t="s">
-        <v>921</v>
+        <v>883</v>
       </c>
       <c r="J144" s="5" t="s">
-        <v>922</v>
+        <v>884</v>
       </c>
       <c r="K144" s="5"/>
     </row>
@@ -7869,19 +7887,19 @@
         <v>144</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>923</v>
+        <v>885</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>924</v>
+        <v>886</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>925</v>
+        <v>887</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>926</v>
+        <v>888</v>
       </c>
       <c r="F145" s="6" t="s">
-        <v>927</v>
+        <v>889</v>
       </c>
       <c r="G145" s="6"/>
       <c r="H145" s="6"/>
@@ -7894,16 +7912,16 @@
         <v>145</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>928</v>
+        <v>890</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>929</v>
+        <v>891</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>930</v>
+        <v>892</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>931</v>
+        <v>893</v>
       </c>
       <c r="F146" s="5"/>
       <c r="G146" s="5"/>
@@ -7917,22 +7935,22 @@
         <v>146</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>932</v>
+        <v>894</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>933</v>
+        <v>895</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>934</v>
+        <v>896</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>935</v>
+        <v>897</v>
       </c>
       <c r="F147" s="6" t="s">
-        <v>936</v>
+        <v>898</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>937</v>
+        <v>899</v>
       </c>
       <c r="H147" s="6"/>
       <c r="I147" s="6"/>
@@ -7944,25 +7962,25 @@
         <v>147</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>938</v>
+        <v>900</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>939</v>
+        <v>901</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>940</v>
+        <v>902</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>941</v>
+        <v>903</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>942</v>
+        <v>904</v>
       </c>
       <c r="G148" s="5" t="s">
-        <v>943</v>
+        <v>905</v>
       </c>
       <c r="H148" s="5" t="s">
-        <v>944</v>
+        <v>906</v>
       </c>
       <c r="I148" s="5"/>
       <c r="J148" s="5"/>
@@ -7973,7 +7991,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>945</v>
+        <v>907</v>
       </c>
       <c r="C149" s="6"/>
       <c r="D149" s="6"/>
@@ -7990,22 +8008,22 @@
         <v>149</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>946</v>
+        <v>908</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>947</v>
+        <v>909</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>948</v>
+        <v>910</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>949</v>
+        <v>911</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>950</v>
+        <v>912</v>
       </c>
       <c r="G150" s="5" t="s">
-        <v>951</v>
+        <v>913</v>
       </c>
       <c r="H150" s="5"/>
       <c r="I150" s="5"/>
@@ -8032,34 +8050,34 @@
         <v>151</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>952</v>
+        <v>914</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>953</v>
+        <v>915</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>954</v>
+        <v>916</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>955</v>
+        <v>917</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>956</v>
+        <v>918</v>
       </c>
       <c r="G152" s="5" t="s">
-        <v>957</v>
+        <v>919</v>
       </c>
       <c r="H152" s="5" t="s">
-        <v>958</v>
+        <v>920</v>
       </c>
       <c r="I152" s="5" t="s">
-        <v>959</v>
+        <v>921</v>
       </c>
       <c r="J152" s="5" t="s">
-        <v>960</v>
+        <v>922</v>
       </c>
       <c r="K152" s="5" t="s">
-        <v>961</v>
+        <v>923</v>
       </c>
     </row>
     <row r="153" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8067,34 +8085,34 @@
         <v>152</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>962</v>
+        <v>924</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>963</v>
+        <v>925</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>964</v>
+        <v>926</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>965</v>
+        <v>927</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>966</v>
+        <v>928</v>
       </c>
       <c r="G153" s="6" t="s">
-        <v>967</v>
+        <v>929</v>
       </c>
       <c r="H153" s="6" t="s">
-        <v>968</v>
+        <v>930</v>
       </c>
       <c r="I153" s="6" t="s">
-        <v>969</v>
+        <v>931</v>
       </c>
       <c r="J153" s="6" t="s">
-        <v>970</v>
+        <v>932</v>
       </c>
       <c r="K153" s="6" t="s">
-        <v>971</v>
+        <v>933</v>
       </c>
     </row>
     <row r="154" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8102,25 +8120,25 @@
         <v>153</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>972</v>
+        <v>934</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>973</v>
+        <v>935</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>974</v>
+        <v>936</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>975</v>
+        <v>937</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>976</v>
+        <v>938</v>
       </c>
       <c r="G154" s="5" t="s">
-        <v>977</v>
+        <v>939</v>
       </c>
       <c r="H154" s="5" t="s">
-        <v>978</v>
+        <v>940</v>
       </c>
       <c r="I154" s="5"/>
       <c r="J154" s="5"/>
@@ -8161,13 +8179,13 @@
         <v>156</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>979</v>
+        <v>941</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>980</v>
+        <v>942</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>981</v>
+        <v>943</v>
       </c>
       <c r="E157" s="6"/>
       <c r="F157" s="6"/>
@@ -8182,13 +8200,13 @@
         <v>157</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>982</v>
+        <v>944</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>983</v>
+        <v>945</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>984</v>
+        <v>946</v>
       </c>
       <c r="E158" s="5"/>
       <c r="F158" s="5"/>
@@ -8218,22 +8236,22 @@
         <v>159</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>985</v>
+        <v>947</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>986</v>
+        <v>948</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>987</v>
+        <v>949</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>988</v>
+        <v>950</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>989</v>
+        <v>951</v>
       </c>
       <c r="G160" s="5" t="s">
-        <v>990</v>
+        <v>952</v>
       </c>
       <c r="H160" s="5"/>
       <c r="I160" s="5"/>
@@ -8260,19 +8278,19 @@
         <v>161</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>991</v>
+        <v>953</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>992</v>
+        <v>954</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>993</v>
+        <v>955</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>994</v>
+        <v>956</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>995</v>
+        <v>957</v>
       </c>
       <c r="G162" s="5"/>
       <c r="H162" s="5"/>
@@ -8285,31 +8303,31 @@
         <v>162</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>996</v>
+        <v>958</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>997</v>
+        <v>959</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>998</v>
+        <v>960</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>999</v>
+        <v>961</v>
       </c>
       <c r="F163" s="6" t="s">
-        <v>1000</v>
+        <v>962</v>
       </c>
       <c r="G163" s="6" t="s">
-        <v>1001</v>
+        <v>963</v>
       </c>
       <c r="H163" s="6" t="s">
-        <v>1002</v>
+        <v>964</v>
       </c>
       <c r="I163" s="6" t="s">
-        <v>1003</v>
+        <v>965</v>
       </c>
       <c r="J163" s="6" t="s">
-        <v>1004</v>
+        <v>966</v>
       </c>
       <c r="K163" s="6"/>
     </row>
@@ -8318,22 +8336,22 @@
         <v>163</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>1005</v>
+        <v>967</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>1006</v>
+        <v>968</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>1007</v>
+        <v>969</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>1008</v>
+        <v>970</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>1009</v>
+        <v>971</v>
       </c>
       <c r="G164" s="5" t="s">
-        <v>1010</v>
+        <v>972</v>
       </c>
       <c r="H164" s="5"/>
       <c r="I164" s="5"/>
@@ -8345,22 +8363,22 @@
         <v>164</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>1011</v>
+        <v>973</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>1012</v>
+        <v>974</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>1013</v>
+        <v>975</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>1014</v>
+        <v>976</v>
       </c>
       <c r="F165" s="6" t="s">
-        <v>1015</v>
+        <v>977</v>
       </c>
       <c r="G165" s="6" t="s">
-        <v>1016</v>
+        <v>978</v>
       </c>
       <c r="H165" s="6"/>
       <c r="I165" s="6"/>
@@ -8387,28 +8405,28 @@
         <v>166</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>1017</v>
+        <v>979</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>1018</v>
+        <v>980</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>1019</v>
+        <v>981</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>1020</v>
+        <v>982</v>
       </c>
       <c r="F167" s="6" t="s">
-        <v>1021</v>
+        <v>983</v>
       </c>
       <c r="G167" s="6" t="s">
-        <v>1022</v>
+        <v>984</v>
       </c>
       <c r="H167" s="6" t="s">
-        <v>1023</v>
+        <v>985</v>
       </c>
       <c r="I167" s="6" t="s">
-        <v>1024</v>
+        <v>986</v>
       </c>
       <c r="J167" s="6"/>
       <c r="K167" s="6"/>
@@ -8418,10 +8436,10 @@
         <v>167</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>1025</v>
+        <v>987</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>1026</v>
+        <v>988</v>
       </c>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
@@ -8452,34 +8470,34 @@
         <v>169</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>1027</v>
+        <v>989</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>1028</v>
+        <v>990</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>1029</v>
+        <v>991</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>1030</v>
+        <v>992</v>
       </c>
       <c r="F170" s="5" t="s">
-        <v>1031</v>
+        <v>993</v>
       </c>
       <c r="G170" s="5" t="s">
-        <v>1032</v>
+        <v>994</v>
       </c>
       <c r="H170" s="5" t="s">
-        <v>1033</v>
+        <v>995</v>
       </c>
       <c r="I170" s="5" t="s">
-        <v>1034</v>
+        <v>996</v>
       </c>
       <c r="J170" s="5" t="s">
-        <v>1035</v>
+        <v>997</v>
       </c>
       <c r="K170" s="5" t="s">
-        <v>1036</v>
+        <v>998</v>
       </c>
     </row>
     <row r="171" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8487,7 +8505,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>1037</v>
+        <v>999</v>
       </c>
       <c r="C171" s="6"/>
       <c r="D171" s="6"/>
@@ -8504,34 +8522,34 @@
         <v>171</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>1038</v>
+        <v>1000</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>1039</v>
+        <v>1001</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>1040</v>
+        <v>1002</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>1041</v>
+        <v>1003</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>1042</v>
+        <v>1004</v>
       </c>
       <c r="G172" s="5" t="s">
-        <v>1043</v>
+        <v>1005</v>
       </c>
       <c r="H172" s="5" t="s">
-        <v>1044</v>
+        <v>1006</v>
       </c>
       <c r="I172" s="5" t="s">
-        <v>1045</v>
+        <v>1007</v>
       </c>
       <c r="J172" s="5" t="s">
-        <v>1046</v>
+        <v>1008</v>
       </c>
       <c r="K172" s="5" t="s">
-        <v>1047</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="173" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8539,25 +8557,25 @@
         <v>172</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>1048</v>
+        <v>1010</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>1049</v>
+        <v>1011</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>1050</v>
+        <v>1012</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>1051</v>
+        <v>1013</v>
       </c>
       <c r="F173" s="6" t="s">
-        <v>1052</v>
+        <v>1014</v>
       </c>
       <c r="G173" s="6" t="s">
-        <v>1053</v>
+        <v>1015</v>
       </c>
       <c r="H173" s="6" t="s">
-        <v>1054</v>
+        <v>1016</v>
       </c>
       <c r="I173" s="6"/>
       <c r="J173" s="6"/>
@@ -8568,34 +8586,34 @@
         <v>173</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>1055</v>
+        <v>1017</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>1056</v>
+        <v>1018</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>1057</v>
+        <v>1019</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>1058</v>
+        <v>1020</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>1059</v>
+        <v>1021</v>
       </c>
       <c r="G174" s="5" t="s">
-        <v>1060</v>
+        <v>1022</v>
       </c>
       <c r="H174" s="5" t="s">
-        <v>1061</v>
+        <v>1023</v>
       </c>
       <c r="I174" s="5" t="s">
-        <v>1062</v>
+        <v>1024</v>
       </c>
       <c r="J174" s="5" t="s">
-        <v>1063</v>
+        <v>1025</v>
       </c>
       <c r="K174" s="5" t="s">
-        <v>1064</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="175" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8603,19 +8621,19 @@
         <v>174</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>1065</v>
+        <v>1027</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>1066</v>
+        <v>1028</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>1067</v>
+        <v>1029</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>1068</v>
+        <v>1030</v>
       </c>
       <c r="F175" s="6" t="s">
-        <v>1069</v>
+        <v>1031</v>
       </c>
       <c r="G175" s="6"/>
       <c r="H175" s="6"/>
@@ -8628,19 +8646,19 @@
         <v>175</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>1070</v>
+        <v>1032</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>1071</v>
+        <v>1033</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>1072</v>
+        <v>1034</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>1073</v>
+        <v>1035</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>1074</v>
+        <v>1036</v>
       </c>
       <c r="G176" s="5"/>
       <c r="H176" s="5"/>
@@ -8653,31 +8671,31 @@
         <v>176</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>1075</v>
+        <v>1037</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>1076</v>
+        <v>1038</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>1077</v>
+        <v>1039</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>1078</v>
+        <v>1040</v>
       </c>
       <c r="F177" s="6" t="s">
-        <v>1079</v>
+        <v>1041</v>
       </c>
       <c r="G177" s="6" t="s">
-        <v>1080</v>
+        <v>1042</v>
       </c>
       <c r="H177" s="6" t="s">
-        <v>1081</v>
+        <v>1043</v>
       </c>
       <c r="I177" s="6" t="s">
-        <v>1082</v>
+        <v>1044</v>
       </c>
       <c r="J177" s="6" t="s">
-        <v>1083</v>
+        <v>1045</v>
       </c>
       <c r="K177" s="6"/>
     </row>
@@ -8686,22 +8704,22 @@
         <v>177</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>1084</v>
+        <v>1046</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>1085</v>
+        <v>1047</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>1086</v>
+        <v>1048</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>1087</v>
+        <v>1049</v>
       </c>
       <c r="F178" s="5" t="s">
-        <v>1088</v>
+        <v>1050</v>
       </c>
       <c r="G178" s="5" t="s">
-        <v>1089</v>
+        <v>1051</v>
       </c>
       <c r="H178" s="5"/>
       <c r="I178" s="5"/>
@@ -8713,7 +8731,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>1090</v>
+        <v>1052</v>
       </c>
       <c r="C179" s="6"/>
       <c r="D179" s="6"/>
@@ -8730,31 +8748,31 @@
         <v>179</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>1091</v>
+        <v>1053</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>1092</v>
+        <v>1054</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>1093</v>
+        <v>1055</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>1094</v>
+        <v>1056</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>1095</v>
+        <v>1057</v>
       </c>
       <c r="G180" s="5" t="s">
-        <v>1096</v>
+        <v>1058</v>
       </c>
       <c r="H180" s="5" t="s">
-        <v>1097</v>
+        <v>1059</v>
       </c>
       <c r="I180" s="5" t="s">
-        <v>1098</v>
+        <v>1060</v>
       </c>
       <c r="J180" s="5" t="s">
-        <v>1099</v>
+        <v>1061</v>
       </c>
       <c r="K180" s="5"/>
     </row>
